--- a/www/ig/fhir/mesures/observations-summary.xlsx
+++ b/www/ig/fhir/mesures/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>mesures-fr-observation-bmi</t>
   </si>
   <si>
-    <t>MesFrObservationBmi</t>
+    <t>Indice de Masse Corporelle</t>
   </si>
   <si>
     <t>null#vital-signs</t>
@@ -77,7 +77,7 @@
     <t>mesures-fr-observation-body-temperature</t>
   </si>
   <si>
-    <t>MesFrObservationBodyTemperature</t>
+    <t>Température</t>
   </si>
   <si>
     <t>null#8310-5</t>
@@ -86,7 +86,7 @@
     <t>mesures-fr-observation-body-weight</t>
   </si>
   <si>
-    <t>MesFrObservationBodyWeight</t>
+    <t>Poids</t>
   </si>
   <si>
     <t>null#29463-7</t>
@@ -95,7 +95,7 @@
     <t>mesures-fr-observation-bodyheight</t>
   </si>
   <si>
-    <t>MesFrObservationBodyHeight</t>
+    <t>Taille</t>
   </si>
   <si>
     <t>null#8302-2</t>
@@ -104,73 +104,85 @@
     <t>mesures-fr-observation-bp</t>
   </si>
   <si>
-    <t>MesFrObservationBp</t>
+    <t>Pression Artérielle</t>
   </si>
   <si>
     <t>null#85354-9</t>
   </si>
   <si>
-    <t>dateTime</t>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>LOINC#8478-0</t>
   </si>
   <si>
     <t>mesures-fr-observation-heartrate</t>
   </si>
   <si>
-    <t>MesFrObservationHeartrate</t>
+    <t>Fréquence Cardiaque</t>
   </si>
   <si>
     <t>null#8867-4</t>
   </si>
   <si>
+    <t>mesures-fr-observation-oxygen-sat</t>
+  </si>
+  <si>
+    <t>Saturation en Oxygène</t>
+  </si>
+  <si>
+    <t>null#2708-6</t>
+  </si>
+  <si>
+    <t>mesures-fr-observation-resp-rate</t>
+  </si>
+  <si>
+    <t>Fréquence respiratoire</t>
+  </si>
+  <si>
+    <t>null#9279-1</t>
+  </si>
+  <si>
     <t>mesures-observation-glucose</t>
   </si>
   <si>
-    <t>MesObservationGlucose</t>
+    <t>Glycémie</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J154-TypeGlucose-ENS/FHIR/JDV-J154-TypeGlucose-ENS (extensible)</t>
   </si>
   <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
     <t>mesures-observation-head-circumference</t>
   </si>
   <si>
-    <t>MesObservationHeadCircumference</t>
-  </si>
-  <si>
-    <t>LOINC#8287-5</t>
+    <t>Périmètre Crânien</t>
+  </si>
+  <si>
+    <t>null#8287-5</t>
   </si>
   <si>
     <t>mesures-observation-pain-severity</t>
   </si>
   <si>
-    <t>MesObservationPainSeverity</t>
-  </si>
-  <si>
-    <t>LOINC#72514-3</t>
+    <t>Niveau de douleur</t>
+  </si>
+  <si>
+    <t>null#72514-3</t>
   </si>
   <si>
     <t>mesures-observation-steps-by-day</t>
   </si>
   <si>
-    <t>MesObservationStepsByDay</t>
+    <t>Nombre de pas par jour</t>
   </si>
   <si>
     <t>null#41950-7</t>
@@ -179,10 +191,10 @@
     <t>mesures-observation-waist-circumference</t>
   </si>
   <si>
-    <t>MesObservationWaistCircumference</t>
-  </si>
-  <si>
-    <t>LOINC#8280-0</t>
+    <t>Tour de taille</t>
+  </si>
+  <si>
+    <t>null#8280-0</t>
   </si>
 </sst>
 </file>
@@ -304,10 +316,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -316,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -555,16 +567,16 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>19</v>
@@ -599,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -625,33 +637,33 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -674,25 +686,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>18</v>
@@ -709,22 +721,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>17</v>
@@ -744,25 +756,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>18</v>
@@ -779,19 +791,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -814,36 +826,106 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="F15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s" s="2">
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>14</v>
       </c>
     </row>
